--- a/tests/test_files/CDISC_Pilot_Study_VS_Timeline.xlsx
+++ b/tests/test_files/CDISC_Pilot_Study_VS_Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEBB730-A752-FC44-924A-AB88E7F71CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF06886-2ECE-BE47-88B5-460711CAFC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="21" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="19" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="793">
   <si>
     <t>Screening</t>
   </si>
@@ -2694,13 +2694,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4003,7 +4003,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5755,10 +5755,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5773,7 +5773,7 @@
     <col min="8" max="8" width="61.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>230</v>
       </c>
@@ -5798,8 +5798,11 @@
       <c r="H1" s="21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I1" s="21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>97</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
@@ -5847,8 +5850,11 @@
       <c r="H3" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I3" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -5874,7 +5880,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
@@ -5893,8 +5899,11 @@
       <c r="F5" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>106</v>
       </c>
@@ -5913,8 +5922,11 @@
       <c r="F6" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
@@ -5933,8 +5945,11 @@
       <c r="F7" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>108</v>
       </c>
@@ -5953,8 +5968,11 @@
       <c r="F8" s="3" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>109</v>
       </c>
@@ -5973,8 +5991,11 @@
       <c r="F9" s="3" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
@@ -5993,8 +6014,11 @@
       <c r="F10" s="3" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>112</v>
       </c>
@@ -6013,8 +6037,11 @@
       <c r="F11" s="3" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>113</v>
       </c>
@@ -6033,8 +6060,11 @@
       <c r="F12" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I12" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>114</v>
       </c>
@@ -6055,6 +6085,9 @@
       </c>
       <c r="H13" s="6" t="s">
         <v>111</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6212,7 +6245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -7748,120 +7781,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>690</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>725</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7953,16 +7986,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11585,6 +11618,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11593,15 +11635,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11806,6 +11839,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11818,14 +11859,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
